--- a/wcsa5seleniumproject/data/ActiTimeTestData.xlsx.xlsx
+++ b/wcsa5seleniumproject/data/ActiTimeTestData.xlsx.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="managercreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>USERNAME</t>
   </si>
@@ -51,6 +52,30 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>manager_01</t>
+  </si>
+  <si>
+    <t>manager123</t>
+  </si>
+  <si>
+    <t>vasudha</t>
+  </si>
+  <si>
+    <t>gurav</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>retypepassword</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
   </si>
 </sst>
 </file>
@@ -384,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -464,4 +489,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>